--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beryl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740D9D4-3F4B-4EF1-A345-C4EA9E1F8446}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297FCF8-26BB-47C0-9777-DC1A3151AD86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>WBS</t>
   </si>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>Beryl Zhu, David Han</t>
+  </si>
+  <si>
+    <t>Model Top and Bottom Panels</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1573,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:rowOff>11853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1623,13 +1626,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>128588</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>109538</xdr:colOff>
+          <xdr:colOff>106680</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -1965,25 +1968,25 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.73046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.46484375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.796875" style="1" customWidth="1"/>
-    <col min="11" max="31" width="2.46484375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.19921875" style="3"/>
+    <col min="8" max="8" width="6.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.77734375" style="1" customWidth="1"/>
+    <col min="11" max="31" width="2.44140625" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="AD1" s="50"/>
       <c r="AE1" s="50"/>
     </row>
-    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2031,7 @@
       <c r="F2" s="48"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -2055,7 +2058,7 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="33" t="s">
         <v>12</v>
@@ -2105,7 +2108,7 @@
       <c r="AD4" s="53"/>
       <c r="AE4" s="54"/>
     </row>
-    <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="33" t="s">
         <v>13</v>
@@ -2151,7 +2154,7 @@
       <c r="AD5" s="57"/>
       <c r="AE5" s="58"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2247,7 +2250,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="42" customFormat="1" ht="23.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" s="42" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
@@ -2361,12 +2364,12 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" s="17" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>2</v>
@@ -2412,7 +2415,7 @@
       <c r="AD8" s="27"/>
       <c r="AE8" s="27"/>
     </row>
-    <row r="9" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -2460,7 +2463,7 @@
       <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
     </row>
-    <row r="10" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
@@ -2508,7 +2511,7 @@
       <c r="AD10" s="27"/>
       <c r="AE10" s="27"/>
     </row>
-    <row r="11" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
@@ -2556,7 +2559,7 @@
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
     </row>
-    <row r="12" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>7</v>
       </c>
@@ -2604,7 +2607,7 @@
       <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
     </row>
-    <row r="13" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>8</v>
       </c>
@@ -2652,7 +2655,7 @@
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
     </row>
-    <row r="14" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>9</v>
       </c>
@@ -2700,7 +2703,7 @@
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
     </row>
-    <row r="15" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>10</v>
       </c>
@@ -2748,7 +2751,7 @@
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
     </row>
-    <row r="16" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>11</v>
       </c>
@@ -2796,7 +2799,7 @@
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
     </row>
-    <row r="17" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>12</v>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
     </row>
-    <row r="18" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>13</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
     </row>
-    <row r="19" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>14</v>
       </c>
@@ -2940,7 +2943,7 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
     </row>
-    <row r="20" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>15</v>
       </c>
@@ -2988,7 +2991,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
     </row>
-    <row r="21" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>16</v>
       </c>
@@ -3036,7 +3039,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
     </row>
-    <row r="22" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>17</v>
       </c>
@@ -3084,7 +3087,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
     </row>
-    <row r="23" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>18</v>
       </c>
@@ -3132,7 +3135,7 @@
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
     </row>
-    <row r="24" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>19</v>
       </c>
@@ -3180,7 +3183,7 @@
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
     </row>
-    <row r="25" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -3228,7 +3231,7 @@
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
     </row>
-    <row r="26" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>21</v>
       </c>
@@ -3276,7 +3279,7 @@
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
     </row>
-    <row r="27" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>22</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
     </row>
-    <row r="28" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>23</v>
       </c>
@@ -3372,7 +3375,7 @@
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
     </row>
-    <row r="29" spans="1:31" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>24</v>
       </c>
@@ -3490,13 +3493,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>128588</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>109538</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -3540,9 +3543,9 @@
       <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="49" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="49" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
@@ -3562,7 +3565,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="49">
         <v>1</v>
       </c>
@@ -3584,7 +3587,7 @@
       <c r="O2" s="59"/>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="49">
         <v>2</v>
       </c>
@@ -3606,7 +3609,7 @@
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
     </row>
-    <row r="4" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="49">
         <v>3</v>
       </c>
@@ -3628,7 +3631,7 @@
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
     </row>
-    <row r="5" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="49">
         <v>4</v>
       </c>
@@ -3650,7 +3653,7 @@
       <c r="O5" s="59"/>
       <c r="P5" s="59"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="49">
         <v>5</v>
       </c>
@@ -3672,7 +3675,7 @@
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
     </row>
-    <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="49">
         <v>6</v>
       </c>
@@ -3694,7 +3697,7 @@
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
     </row>
-    <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="49">
         <v>7</v>
       </c>
@@ -3716,7 +3719,7 @@
       <c r="O8" s="59"/>
       <c r="P8" s="59"/>
     </row>
-    <row r="9" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="49">
         <v>8</v>
       </c>
@@ -3738,7 +3741,7 @@
       <c r="O9" s="59"/>
       <c r="P9" s="59"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="49">
         <v>9</v>
       </c>
@@ -3760,7 +3763,7 @@
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
     </row>
-    <row r="11" spans="1:16" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="49">
         <v>10</v>
       </c>
@@ -3802,6 +3805,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DefaultSectionNames xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
@@ -3852,15 +3864,6 @@
     <Has_Teacher_Only_SectionGroup xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4292,6 +4295,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CFE87-55BE-44B1-B726-B683C6F9DCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4305,14 +4316,6 @@
     <ds:schemaRef ds:uri="fbc0f2f7-f495-42fc-a865-4cb033443223"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297FCF8-26BB-47C0-9777-DC1A3151AD86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8533F4E0-0ED0-4F9E-904F-75D4EC6C436F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>WBS</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>Beryl Zhu, David Han</t>
-  </si>
-  <si>
-    <t>Model Top and Bottom Panels</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1570,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>11853</xdr:rowOff>
+      <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1968,7 +1965,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2364,12 +2361,12 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="17" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>2</v>
@@ -3805,15 +3802,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DefaultSectionNames xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
@@ -3864,6 +3852,15 @@
     <Has_Teacher_Only_SectionGroup xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4295,14 +4292,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CFE87-55BE-44B1-B726-B683C6F9DCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4316,6 +4305,14 @@
     <ds:schemaRef ds:uri="fbc0f2f7-f495-42fc-a865-4cb033443223"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8533F4E0-0ED0-4F9E-904F-75D4EC6C436F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD0ECC-C66F-44D6-B4F0-39FB638ADB30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -425,15 +425,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>WBS</t>
-  </si>
-  <si>
-    <t>[Task]</t>
-  </si>
-  <si>
-    <t>[Name]</t>
   </si>
   <si>
     <t>TASK</t>
@@ -532,6 +526,51 @@
   </si>
   <si>
     <t>Beryl Zhu, David Han</t>
+  </si>
+  <si>
+    <t>Contact Partner</t>
+  </si>
+  <si>
+    <t>Team Norms</t>
+  </si>
+  <si>
+    <t>Brainstorm Ideas</t>
+  </si>
+  <si>
+    <t>Decision Matrix</t>
+  </si>
+  <si>
+    <t>Sketched Solution &amp; Feedback Post</t>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>Create CAD parts</t>
+  </si>
+  <si>
+    <t>Dimension Technical Drawings</t>
+  </si>
+  <si>
+    <t>Multiview Assembly Drawing</t>
+  </si>
+  <si>
+    <t>Balloons</t>
+  </si>
+  <si>
+    <t>Parts List</t>
+  </si>
+  <si>
+    <t>Title Block</t>
+  </si>
+  <si>
+    <t>Summary Presentation</t>
+  </si>
+  <si>
+    <t>Final Class Evaluation</t>
+  </si>
+  <si>
+    <t>Project 9.3j Teammate Performance Summary</t>
   </si>
 </sst>
 </file>
@@ -826,7 +865,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,6 +977,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1281,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1296,9 +1347,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1382,6 +1430,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1561,14 +1618,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -1965,15 +2022,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.21875" style="6" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" style="1" customWidth="1"/>
@@ -1984,48 +2041,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>27</v>
+      <c r="A1" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="I1" s="47"/>
-      <c r="K1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
+      <c r="I1" s="46"/>
+      <c r="K1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="13.8" x14ac:dyDescent="0.25">
@@ -2056,100 +2113,100 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="55">
+      <c r="A4" s="28"/>
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="54">
         <v>43948</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="46">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="45">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="52" t="str">
+      <c r="K4" s="51" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="52" t="str">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="51" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="52" t="str">
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="51" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="54"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="53"/>
     </row>
     <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="56">
+      <c r="K5" s="55">
         <f>K6</f>
         <v>43948</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="56">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="55">
         <f>R6</f>
         <v>43955</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="56">
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="55">
         <f>Y6</f>
         <v>43962</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="58"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -2247,116 +2304,116 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="42" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:31" s="41" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="H7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="I7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="39" t="str">
+      <c r="J7" s="35"/>
+      <c r="K7" s="38" t="str">
         <f t="shared" ref="K7:AE7" si="1">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="40" t="str">
+      <c r="L7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="M7" s="40" t="str">
+      <c r="M7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="N7" s="40" t="str">
+      <c r="N7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="O7" s="40" t="str">
+      <c r="O7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="P7" s="40" t="str">
+      <c r="P7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="R7" s="39" t="str">
+      <c r="R7" s="38" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="S7" s="40" t="str">
+      <c r="S7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="T7" s="40" t="str">
+      <c r="T7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="U7" s="40" t="str">
+      <c r="U7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="V7" s="40" t="str">
+      <c r="V7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="W7" s="40" t="str">
+      <c r="W7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="X7" s="41" t="str">
+      <c r="X7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="39" t="str">
+      <c r="Y7" s="38" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="40" t="str">
+      <c r="Z7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="40" t="str">
+      <c r="AA7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="40" t="str">
+      <c r="AB7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="40" t="str">
+      <c r="AC7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="40" t="str">
+      <c r="AD7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="41" t="str">
+      <c r="AE7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
@@ -2365,13 +2422,13 @@
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>1</v>
+      <c r="B8" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="45"/>
+        <v>26</v>
+      </c>
+      <c r="D8" s="44"/>
       <c r="E8" s="25">
         <v>43129</v>
       </c>
@@ -2383,14 +2440,13 @@
         <v>5</v>
       </c>
       <c r="H8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" ref="I8:I29" si="2">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -2416,29 +2472,31 @@
       <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="45"/>
+      <c r="B9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="44"/>
       <c r="E9" s="25">
         <v>43134</v>
       </c>
       <c r="F9" s="26">
-        <f t="shared" ref="F9:F29" si="3">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
+        <f t="shared" ref="F9:F22" si="2">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>43138</v>
       </c>
       <c r="G9" s="18">
         <v>5</v>
       </c>
       <c r="H9" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="20">
-        <f>IF(OR(F9=0,E9=0)," - ",NETWORKDAYS(E9,F9))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -2464,31 +2522,33 @@
       <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="45"/>
+      <c r="B10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="44"/>
       <c r="E10" s="25">
         <v>43139</v>
       </c>
       <c r="F10" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43142</v>
       </c>
       <c r="G10" s="18">
         <v>4</v>
       </c>
       <c r="H10" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -2512,31 +2572,33 @@
       <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="B11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="44"/>
       <c r="E11" s="25">
         <v>43132</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43135</v>
       </c>
       <c r="G11" s="18">
         <v>4</v>
       </c>
       <c r="H11" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
@@ -2556,35 +2618,37 @@
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
     </row>
-    <row r="12" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="17" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="45"/>
+      <c r="B12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="44"/>
       <c r="E12" s="25">
         <v>43136</v>
       </c>
       <c r="F12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43140</v>
       </c>
       <c r="G12" s="18">
         <v>5</v>
       </c>
       <c r="H12" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -2608,33 +2672,35 @@
       <c r="A13" s="16">
         <v>8</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="45"/>
+      <c r="B13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="44"/>
       <c r="E13" s="25">
         <v>43134</v>
       </c>
       <c r="F13" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43140</v>
       </c>
       <c r="G13" s="18">
         <v>7</v>
       </c>
       <c r="H13" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -2656,25 +2722,28 @@
       <c r="A14" s="16">
         <v>9</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="45"/>
+      <c r="B14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="44"/>
       <c r="E14" s="25">
         <v>43141</v>
       </c>
       <c r="F14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43147</v>
       </c>
       <c r="G14" s="18">
         <v>7</v>
       </c>
       <c r="H14" s="19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I14:I22" si="3">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
         <v>5</v>
       </c>
       <c r="J14" s="24"/>
@@ -2683,9 +2752,9 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
@@ -2700,19 +2769,22 @@
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
     </row>
-    <row r="15" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="17" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="45"/>
+      <c r="B15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="44"/>
       <c r="E15" s="25">
         <v>43141</v>
       </c>
       <c r="F15" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43144</v>
       </c>
       <c r="G15" s="18">
@@ -2722,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J15" s="24"/>
@@ -2731,9 +2803,9 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -2748,19 +2820,22 @@
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
     </row>
-    <row r="16" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="17" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>11</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="45"/>
+      <c r="B16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="44"/>
       <c r="E16" s="25">
         <v>43145</v>
       </c>
       <c r="F16" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43147</v>
       </c>
       <c r="G16" s="18">
@@ -2770,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J16" s="24"/>
@@ -2781,8 +2856,8 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -2800,15 +2875,18 @@
       <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="B17" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="44"/>
       <c r="E17" s="25">
         <v>43145</v>
       </c>
       <c r="F17" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43147</v>
       </c>
       <c r="G17" s="18">
@@ -2818,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J17" s="24"/>
@@ -2830,7 +2908,7 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="S17" s="61"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
@@ -2848,15 +2926,18 @@
       <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="45"/>
+      <c r="B18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="44"/>
       <c r="E18" s="25">
         <v>43148</v>
       </c>
       <c r="F18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43153</v>
       </c>
       <c r="G18" s="18">
@@ -2866,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J18" s="24"/>
@@ -2878,7 +2959,7 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
+      <c r="S18" s="61"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
@@ -2896,15 +2977,18 @@
       <c r="A19" s="16">
         <v>14</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="45"/>
+      <c r="B19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="44"/>
       <c r="E19" s="25">
         <v>43154</v>
       </c>
       <c r="F19" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43156</v>
       </c>
       <c r="G19" s="18">
@@ -2914,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J19" s="24"/>
@@ -2926,7 +3010,7 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
+      <c r="S19" s="61"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
@@ -2944,15 +3028,18 @@
       <c r="A20" s="16">
         <v>15</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="45"/>
+      <c r="B20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="44"/>
       <c r="E20" s="25">
         <v>43141</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43144</v>
       </c>
       <c r="G20" s="18">
@@ -2962,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J20" s="24"/>
@@ -2975,9 +3062,9 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
       <c r="W20" s="27"/>
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
@@ -2992,15 +3079,18 @@
       <c r="A21" s="16">
         <v>16</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="45"/>
+      <c r="B21" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="44"/>
       <c r="E21" s="25">
         <v>43145</v>
       </c>
       <c r="F21" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43147</v>
       </c>
       <c r="G21" s="18">
@@ -3010,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J21" s="24"/>
@@ -3024,8 +3114,8 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
@@ -3036,19 +3126,22 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
     </row>
-    <row r="22" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="17" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>17</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="45"/>
+      <c r="B22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="44"/>
       <c r="E22" s="25">
         <v>43145</v>
       </c>
       <c r="F22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43147</v>
       </c>
       <c r="G22" s="18">
@@ -3058,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J22" s="24"/>
@@ -3073,7 +3166,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
+      <c r="V22" s="61"/>
       <c r="W22" s="27"/>
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
@@ -3088,27 +3181,13 @@
       <c r="A23" s="16">
         <v>18</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="25">
-        <v>43148</v>
-      </c>
-      <c r="F23" s="26">
-        <f t="shared" si="3"/>
-        <v>43153</v>
-      </c>
-      <c r="G23" s="18">
-        <v>6</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="B23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="24"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -3133,30 +3212,14 @@
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>19</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="25">
-        <v>43154</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="3"/>
-        <v>43156</v>
-      </c>
-      <c r="G24" s="18">
-        <v>3</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="24"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -3181,30 +3244,14 @@
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>20</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="25">
-        <v>43129</v>
-      </c>
-      <c r="F25" s="26">
-        <f t="shared" si="3"/>
-        <v>43129</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="24"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -3229,30 +3276,14 @@
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>21</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="25">
-        <v>43130</v>
-      </c>
-      <c r="F26" s="26">
-        <f t="shared" si="3"/>
-        <v>43130</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="24"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -3277,30 +3308,14 @@
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>22</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="25">
-        <v>43131</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="3"/>
-        <v>43131</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="24"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -3325,30 +3340,14 @@
       <c r="AE27" s="27"/>
     </row>
     <row r="28" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>23</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="25">
-        <v>43132</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="3"/>
-        <v>43132</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="24"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
@@ -3373,30 +3372,14 @@
       <c r="AE28" s="27"/>
     </row>
     <row r="29" spans="1:31" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>24</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="25">
-        <v>43133</v>
-      </c>
-      <c r="F29" s="26">
-        <f t="shared" si="3"/>
-        <v>43133</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="24"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
@@ -3476,7 +3459,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B25 B26:B28 B20:B23 B15:B18 G11 G13 G12 G10 G9 G25:G28" unlockedFormula="1"/>
+    <ignoredError sqref="G11 G13 G12 G10 G9" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -3542,245 +3525,245 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="49" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+    <row r="1" spans="1:16" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="B3" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="B4" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="B5" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="B6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
+      <c r="B7" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="49">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
+      <c r="B8" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
+      <c r="B9" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
+      <c r="B10" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
+      <c r="B11" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3802,6 +3785,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DefaultSectionNames xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
@@ -3852,15 +3844,6 @@
     <Has_Teacher_Only_SectionGroup xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4292,6 +4275,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CFE87-55BE-44B1-B726-B683C6F9DCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4305,14 +4296,6 @@
     <ds:schemaRef ds:uri="fbc0f2f7-f495-42fc-a865-4cb033443223"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divid\Documents\GitHub\Activity-9.3---Virtual-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD0ECC-C66F-44D6-B4F0-39FB638ADB30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307947A1-614F-4576-B514-092028E2EC62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,6 +1400,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1430,15 +1439,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2050,29 +2050,29 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="46"/>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2117,11 +2117,11 @@
       <c r="B4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="57">
         <v>43948</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="29"/>
       <c r="G4" s="32" t="s">
         <v>9</v>
@@ -2131,82 +2131,82 @@
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="51" t="str">
+      <c r="K4" s="54" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="51" t="str">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="54" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="51" t="str">
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="54" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="53"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="56"/>
     </row>
     <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="55">
+      <c r="K5" s="58">
         <f>K6</f>
         <v>43948</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="55">
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="58">
         <f>R6</f>
         <v>43955</v>
       </c>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="55">
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="58">
         <f>Y6</f>
         <v>43962</v>
       </c>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="60"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -2304,7 +2304,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="41" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="41" customFormat="1" ht="112.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="59"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="59"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -2547,8 +2547,8 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="27"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -2597,8 +2597,8 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="27"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
@@ -2648,7 +2648,7 @@
       <c r="J12" s="24"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="59"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -2699,8 +2699,8 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -2752,9 +2752,9 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
@@ -2803,9 +2803,9 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -2856,8 +2856,8 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -2908,7 +2908,7 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="61"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
@@ -2959,7 +2959,7 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="61"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
@@ -3010,7 +3010,7 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="61"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
@@ -3062,9 +3062,9 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
       <c r="W20" s="27"/>
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
@@ -3114,8 +3114,8 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
@@ -3166,7 +3166,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
-      <c r="V22" s="61"/>
+      <c r="V22" s="51"/>
       <c r="W22" s="27"/>
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
@@ -3526,244 +3526,244 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
     </row>
     <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="48">
         <v>10</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3785,15 +3785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DefaultSectionNames xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
@@ -3844,6 +3835,15 @@
     <Has_Teacher_Only_SectionGroup xmlns="4b3a816c-fb5c-4ae8-ae26-55a41883ea12" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4275,14 +4275,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CFE87-55BE-44B1-B726-B683C6F9DCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4296,6 +4288,14 @@
     <ds:schemaRef ds:uri="fbc0f2f7-f495-42fc-a865-4cb033443223"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18074D7A-EBB9-4DA7-BA6E-E9556D229A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
